--- a/02_ 시스템/[시스템]_UI기획_무기한계돌파_v1.00.xlsx
+++ b/02_ 시스템/[시스템]_UI기획_무기한계돌파_v1.00.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Yaho\02_ 시스템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EEF3E8-7406-40C5-BC97-0803340372C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1298A51E-9A22-41EF-8B81-D519079B4711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" activeTab="1" xr2:uid="{447E4A4D-CAEB-4F65-A757-BFAD8D502655}"/>
   </bookViews>
@@ -1611,352 +1611,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>36369</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>275853</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>4945</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="371" name="직사각형 370">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C347910A-5527-44BC-A657-8A07D5BDE910}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15345642" y="6568909"/>
-          <a:ext cx="828302" cy="865536"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>39089</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>27469</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>278573</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="372" name="직사각형 371">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C2671A-CE6C-411D-BD88-5E8B6CA37F31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15348362" y="8929014"/>
-          <a:ext cx="828302" cy="856010"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>41812</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>37606</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>281296</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>10390</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="373" name="직사각형 372">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C23D3C-9DB6-4324-9CDD-0C47B1AF696D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15351085" y="7761515"/>
-          <a:ext cx="828302" cy="856011"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>27215</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>36622</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>277090</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9405</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="374" name="직사각형 373">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A0E4B1-0B78-4495-B016-107BFA447339}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15336488" y="10115804"/>
-          <a:ext cx="838693" cy="856010"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1800"/>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>172196</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>119990</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>272140</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="375" name="직사각형 374">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B686FB7-FFE2-4A89-9AF1-26959CEED548}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15187060" y="11267704"/>
-          <a:ext cx="1125430" cy="1144481"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="38100"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1800"/>
-            <a:t>필</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1800"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -32696,7 +32350,7 @@
   <dimension ref="C1:EA87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BZ24" sqref="BZ24"/>
+      <selection activeCell="CD28" sqref="CD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="22.5" customHeight="1"/>
